--- a/file_checks/X_correct_sample.xlsx
+++ b/file_checks/X_correct_sample.xlsx
@@ -1451,502 +1451,502 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.913337107070874</v>
+        <v>0.584249211530415</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.27871041353349</v>
+        <v>-1.16661702033106</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.859771989802489</v>
+        <v>-0.598045646010676</v>
       </c>
       <c r="D2" t="n">
-        <v>2.2958022161011</v>
+        <v>1.6936816945227</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.886952430126446</v>
+        <v>0.142651103001356</v>
       </c>
       <c r="F2" t="n">
-        <v>1.70950023951292</v>
+        <v>-0.373256374114842</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0526434541821609</v>
+        <v>0.596239720228846</v>
       </c>
       <c r="H2" t="n">
-        <v>1.05529402304864</v>
+        <v>1.82750175581551</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.84554189261887</v>
+        <v>-1.05240117221653</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.214206992324754</v>
+        <v>0.0317937521551715</v>
       </c>
       <c r="K2" t="n">
-        <v>1.08638815323346</v>
+        <v>0.635762028937809</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.117808162472195</v>
+        <v>0.0289353422233439</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.4556533329623</v>
+        <v>-1.44238201927087</v>
       </c>
       <c r="N2" t="n">
-        <v>1.68159924510841</v>
+        <v>0.599495151516548</v>
       </c>
       <c r="O2" t="n">
-        <v>1.21310229295234</v>
+        <v>-0.30096070998741</v>
       </c>
       <c r="P2" t="n">
-        <v>0.471677553039683</v>
+        <v>0.610198600310374</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.796580696915521</v>
+        <v>-1.46784113905091</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.739213566782069</v>
+        <v>0.729795208864881</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.881880300419075</v>
+        <v>1.8139742412677</v>
       </c>
       <c r="T2" t="n">
-        <v>1.50415468719623</v>
+        <v>-0.636947511375737</v>
       </c>
       <c r="U2" t="n">
-        <v>1.69448281904141</v>
+        <v>1.45032523485856</v>
       </c>
       <c r="V2" t="n">
-        <v>0.887841056296886</v>
+        <v>0.799962657329225</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.928545873540746</v>
+        <v>0.0531455290367769</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.162203811918306</v>
+        <v>-0.459106100817277</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.82155638292134</v>
+        <v>-0.837797185014917</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.890494180611733</v>
+        <v>-0.612558567755404</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.917043783593907</v>
+        <v>0.446117052835228</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.82910624573759</v>
+        <v>0.328714787154997</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.02480865308897</v>
+        <v>0.0988424986750537</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.729884881584059</v>
+        <v>0.996883467147391</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.920237269598866</v>
+        <v>-0.574806863191494</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.18806966424197</v>
+        <v>1.69906105678223</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.30935132692022</v>
+        <v>-0.737076602115931</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.295215466833448</v>
+        <v>1.15640722836433</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.39421486891134</v>
+        <v>-1.41986506793721</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.380182179814057</v>
+        <v>0.0755223626713653</v>
       </c>
       <c r="AK2" t="n">
-        <v>-2.06989945446488</v>
+        <v>-0.464851798813496</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.263386959886462</v>
+        <v>-1.80209414727706</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.405767720024191</v>
+        <v>1.35882040394592</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.604933995665948</v>
+        <v>0.415253858634582</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.966638729172046</v>
+        <v>-1.48452514472983</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.17993823992624</v>
+        <v>0.477428555462552</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-1.19255147420437</v>
+        <v>-1.43387534482926</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.533120356513246</v>
+        <v>0.381903551070899</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.0271107398203983</v>
+        <v>-1.1201776730103</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.0895383444354598</v>
+        <v>-0.0217127179924806</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.59141128008339</v>
+        <v>-0.442177019545199</v>
       </c>
       <c r="AV2" t="n">
-        <v>1.04229812135694</v>
+        <v>-0.743425334920596</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.968791595088442</v>
+        <v>-0.680148463658124</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.441125511417871</v>
+        <v>-1.30988034632203</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0.840199311984952</v>
+        <v>2.98322566023115</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.505305228152385</v>
+        <v>0.00565139100087201</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.883633870568541</v>
+        <v>0.364208928261129</v>
       </c>
       <c r="BB2" t="n">
-        <v>-1.49836579439147</v>
+        <v>-0.153560639958513</v>
       </c>
       <c r="BC2" t="n">
-        <v>1.12045649691202</v>
+        <v>-1.2665043536635</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.746812086824286</v>
+        <v>-0.81758923401729</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.265381711301251</v>
+        <v>-1.23808658662315</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.353921052023206</v>
+        <v>0.794331331100737</v>
       </c>
       <c r="BG2" t="n">
-        <v>-1.64360830548211</v>
+        <v>0.608858356969174</v>
       </c>
       <c r="BH2" t="n">
-        <v>-1.14763407394559</v>
+        <v>-0.0644796729757121</v>
       </c>
       <c r="BI2" t="n">
-        <v>-0.923320358394083</v>
+        <v>1.65893165617454</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-1.03539742029963</v>
+        <v>-1.43981879892035</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.00937820888875196</v>
+        <v>-1.28845434443345</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.429932222771195</v>
+        <v>1.47366900820101</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.557181253978804</v>
+        <v>-0.221971916402473</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.0584744449772795</v>
+        <v>-0.383376798009055</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0.300807841407232</v>
+        <v>-0.782327742990926</v>
       </c>
       <c r="BP2" t="n">
-        <v>1.23181090026322</v>
+        <v>-2.16840671405316</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.48185125942932</v>
+        <v>-0.5071158611853</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.348964649716591</v>
+        <v>0.727676556591068</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.243672929211065</v>
+        <v>-1.23189502006137</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.46779031324873</v>
+        <v>0.832646806361097</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.501590459711618</v>
+        <v>-0.888655563401677</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.0590801347433943</v>
+        <v>0.438208827759539</v>
       </c>
       <c r="BW2" t="n">
-        <v>1.06207410228767</v>
+        <v>-1.09168022635069</v>
       </c>
       <c r="BX2" t="n">
-        <v>-1.20885859061878</v>
+        <v>-0.0286155794769085</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.500185983773061</v>
+        <v>1.44238804260274</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0.325925728811377</v>
+        <v>-0.515923593434971</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.0177426006716837</v>
+        <v>-0.515595620962954</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.361128511464033</v>
+        <v>0.872405612322727</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.215327055414325</v>
+        <v>1.38405974859076</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.48794672077371</v>
+        <v>-2.17946479897011</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.43030448423942</v>
+        <v>1.04863567014285</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.234488437147529</v>
+        <v>0.0758229317472134</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.106742793439413</v>
+        <v>0.706625088041923</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.727752886342699</v>
+        <v>1.5628339863228</v>
       </c>
       <c r="CI2" t="n">
-        <v>-1.32307876083702</v>
+        <v>0.559623361734474</v>
       </c>
       <c r="CJ2" t="n">
-        <v>1.6867829386742</v>
+        <v>-1.853662536455</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.563488960264034</v>
+        <v>-0.97427964087054</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.467896764514406</v>
+        <v>-0.832244329034584</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0.491548198215177</v>
+        <v>0.713232540089677</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0.834561736807211</v>
+        <v>-1.8240627343378</v>
       </c>
       <c r="CO2" t="n">
-        <v>-1.14269748162798</v>
+        <v>-1.99973884803438</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.368383756845222</v>
+        <v>0.45716966000481</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.0474337224437526</v>
+        <v>2.27144545414249</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0.199577987741653</v>
+        <v>0.527643479778094</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.625769101876401</v>
+        <v>-0.315890663503578</v>
       </c>
       <c r="CT2" t="n">
-        <v>1.63161581076393</v>
+        <v>0.570097013159887</v>
       </c>
       <c r="CU2" t="n">
-        <v>2.08867496909956</v>
+        <v>2.33977684199421</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.0200992587722739</v>
+        <v>0.235932027316636</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.660429664486844</v>
+        <v>-1.82849081454717</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0.402998886384078</v>
+        <v>-0.317892015699524</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0.474450249940421</v>
+        <v>-0.214156477891187</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.236854543440651</v>
+        <v>0.935168053548583</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.770643841792399</v>
+        <v>-0.958592214445927</v>
       </c>
       <c r="DB2" t="n">
-        <v>-1.25325551601982</v>
+        <v>-0.409817191584554</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.248894979710175</v>
+        <v>-0.0585812869095304</v>
       </c>
       <c r="DD2" t="n">
-        <v>-0.200208451546982</v>
+        <v>1.01161827302638</v>
       </c>
       <c r="DE2" t="n">
-        <v>1.4046400663347</v>
+        <v>-0.826733026080616</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.334473981369552</v>
+        <v>1.48308017096107</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0.505071749660278</v>
+        <v>-0.30213730739612</v>
       </c>
       <c r="DH2" t="n">
-        <v>-2.51819511950874</v>
+        <v>-1.00217318235314</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.395251442192388</v>
+        <v>-0.98946245358614</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0.645655096169845</v>
+        <v>-0.571647628018622</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.750236953529962</v>
+        <v>0.361553897998451</v>
       </c>
       <c r="DL2" t="n">
-        <v>-1.48816449590901</v>
+        <v>0.0700235023031033</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.479250480293886</v>
+        <v>0.949308222050361</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0.418204019482873</v>
+        <v>1.34976276622755</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.0593368436251199</v>
+        <v>-1.14892965174093</v>
       </c>
       <c r="DP2" t="n">
-        <v>1.07376717914033</v>
+        <v>-0.471706648081348</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.814119124044284</v>
+        <v>0.810573910160838</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.253002591002853</v>
+        <v>0.485112336049789</v>
       </c>
       <c r="DS2" t="n">
-        <v>1.03242752417633</v>
+        <v>-1.03441869696622</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.413451151209117</v>
+        <v>0.0929724931038659</v>
       </c>
       <c r="DU2" t="n">
-        <v>-1.84525947983146</v>
+        <v>-1.4305932331778</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.209460522941895</v>
+        <v>-0.495854720316221</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.21538885261917</v>
+        <v>-1.95257195302926</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.618165344816006</v>
+        <v>1.165803578308</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.27392439536051</v>
+        <v>0.465469168901742</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.594227874354497</v>
+        <v>0.395114618874739</v>
       </c>
       <c r="EA2" t="n">
-        <v>-2.23299517401964</v>
+        <v>0.477568732817744</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.899642570099314</v>
+        <v>-0.85191047076142</v>
       </c>
       <c r="EC2" t="n">
-        <v>-1.13990253913926</v>
+        <v>-1.13434306770382</v>
       </c>
       <c r="ED2" t="n">
-        <v>2.23475781927697</v>
+        <v>0.33286443352395</v>
       </c>
       <c r="EE2" t="n">
-        <v>1.59360065015268</v>
+        <v>0.099789883787253</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.0988696061648279</v>
+        <v>2.72155033539693</v>
       </c>
       <c r="EG2" t="n">
-        <v>-1.82430301947865</v>
+        <v>-2.03409448363187</v>
       </c>
       <c r="EH2" t="n">
-        <v>-1.12575628922584</v>
+        <v>-0.0282961547060361</v>
       </c>
       <c r="EI2" t="n">
-        <v>1.5740562593608</v>
+        <v>-1.19419885972308</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.1644576981289</v>
+        <v>-1.09939803743498</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.750163799573041</v>
+        <v>0.500622949501892</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.74170453503337</v>
+        <v>0.36863975433199</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.465397093661471</v>
+        <v>0.101518030094876</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.266641394239142</v>
+        <v>0.565122199700102</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.640565239274468</v>
+        <v>-0.316131366525928</v>
       </c>
       <c r="EP2" t="n">
-        <v>-0.158777230800592</v>
+        <v>-0.190541351312411</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0.0420745329970062</v>
+        <v>1.70710636765719</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.32488244796936</v>
+        <v>-1.20387142540893</v>
       </c>
       <c r="ES2" t="n">
-        <v>1.23773651144163</v>
+        <v>0.12273093908941</v>
       </c>
       <c r="ET2" t="n">
-        <v>-1.49617943596179</v>
+        <v>0.987081079048425</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.259617857898905</v>
+        <v>0.706705153203791</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.53309934875385</v>
+        <v>0.0803022575419226</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.940956076131154</v>
+        <v>-0.507889551846721</v>
       </c>
       <c r="EX2" t="n">
-        <v>1.20115340931226</v>
+        <v>-1.18152141827263</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.496013028943191</v>
+        <v>-0.457095020011873</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.0797062994364428</v>
+        <v>0.548137006954622</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0.0227290581534093</v>
+        <v>0.359038571608761</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.591636880801448</v>
+        <v>1.12435431819418</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.147180685401795</v>
+        <v>-0.0638456060967835</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.952867559764404</v>
+        <v>1.7125095848517</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.451640806183678</v>
+        <v>0.672073927305259</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.948963970507247</v>
+        <v>-0.407049229428154</v>
       </c>
       <c r="FG2" t="n">
-        <v>-1.76936743206858</v>
+        <v>1.05918232852159</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.179225298547466</v>
+        <v>0.169058580211995</v>
       </c>
       <c r="FI2" t="n">
-        <v>-0.311165118666433</v>
+        <v>0.0809808951747849</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0.651585238287694</v>
+        <v>-0.372718750357086</v>
       </c>
       <c r="FK2" t="n">
         <v>1</v>
@@ -1964,31 +1964,31 @@
         <v>0</v>
       </c>
       <c r="FP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ2" t="n">
         <v>1</v>
       </c>
-      <c r="FQ2" t="n">
+      <c r="FR2" t="n">
         <v>0</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>1</v>
       </c>
       <c r="FS2" t="n">
         <v>0</v>
       </c>
       <c r="FT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU2" t="n">
         <v>0</v>
       </c>
-      <c r="FU2" t="n">
+      <c r="FV2" t="n">
         <v>1</v>
       </c>
-      <c r="FV2" t="n">
+      <c r="FW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX2" t="n">
         <v>0</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>1</v>
       </c>
       <c r="FY2" t="n">
         <v>0</v>
@@ -1997,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="GA2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GB2" t="n">
         <v>1</v>

--- a/file_checks/X_correct_sample.xlsx
+++ b/file_checks/X_correct_sample.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
   <si>
     <t xml:space="preserve">X_1017</t>
   </si>
@@ -561,6 +561,15 @@
   </si>
   <si>
     <t xml:space="preserve">rorS_risk_high</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ER_hp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ER_lp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HER2_scmod1</t>
   </si>
   <si>
     <t xml:space="preserve">Endo</t>
@@ -1448,508 +1457,517 @@
       <c r="GB1" t="s">
         <v>183</v>
       </c>
+      <c r="GC1" t="s">
+        <v>184</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>185</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.584249211530415</v>
+        <v>-0.841412404463373</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.16661702033106</v>
+        <v>-1.64341947870535</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.598045646010676</v>
+        <v>-0.480244627344693</v>
       </c>
       <c r="D2" t="n">
-        <v>1.6936816945227</v>
+        <v>-0.740416982478479</v>
       </c>
       <c r="E2" t="n">
-        <v>0.142651103001356</v>
+        <v>0.228950159061004</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.373256374114842</v>
+        <v>0.696317413256603</v>
       </c>
       <c r="G2" t="n">
-        <v>0.596239720228846</v>
+        <v>0.0131394887126592</v>
       </c>
       <c r="H2" t="n">
-        <v>1.82750175581551</v>
+        <v>0.0776594621774037</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.05240117221653</v>
+        <v>-1.85593618811653</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0317937521551715</v>
+        <v>-0.687228353602373</v>
       </c>
       <c r="K2" t="n">
-        <v>0.635762028937809</v>
+        <v>-0.202373398342916</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0289353422233439</v>
+        <v>-0.632048139352103</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.44238201927087</v>
+        <v>0.455582564808087</v>
       </c>
       <c r="N2" t="n">
-        <v>0.599495151516548</v>
+        <v>1.69730957166241</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.30096070998741</v>
+        <v>1.52480677540082</v>
       </c>
       <c r="P2" t="n">
-        <v>0.610198600310374</v>
+        <v>-1.96019872575631</v>
       </c>
       <c r="Q2" t="n">
-        <v>-1.46784113905091</v>
+        <v>1.06522739384967</v>
       </c>
       <c r="R2" t="n">
-        <v>0.729795208864881</v>
+        <v>-0.0451823810094551</v>
       </c>
       <c r="S2" t="n">
-        <v>1.8139742412677</v>
+        <v>-0.563245628731607</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.636947511375737</v>
+        <v>1.89783363983428</v>
       </c>
       <c r="U2" t="n">
-        <v>1.45032523485856</v>
+        <v>-0.430576928038395</v>
       </c>
       <c r="V2" t="n">
-        <v>0.799962657329225</v>
+        <v>-0.702878361195178</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0531455290367769</v>
+        <v>-0.848088351389472</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.459106100817277</v>
+        <v>-0.0656699842104342</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.837797185014917</v>
+        <v>-2.02324459959604</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.612558567755404</v>
+        <v>0.175172571401999</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.446117052835228</v>
+        <v>-3.26864315409301</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.328714787154997</v>
+        <v>-1.06968251008069</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0988424986750537</v>
+        <v>-0.542624463017559</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.996883467147391</v>
+        <v>0.418240250362507</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.574806863191494</v>
+        <v>0.134041902501137</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.69906105678223</v>
+        <v>0.480308635907728</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.737076602115931</v>
+        <v>0.827856627243898</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.15640722836433</v>
+        <v>0.645992851170982</v>
       </c>
       <c r="AI2" t="n">
-        <v>-1.41986506793721</v>
+        <v>0.104177661928466</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0755223626713653</v>
+        <v>1.13449615123768</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.464851798813496</v>
+        <v>-0.343895934279011</v>
       </c>
       <c r="AL2" t="n">
-        <v>-1.80209414727706</v>
+        <v>0.708258323998476</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.35882040394592</v>
+        <v>-1.02655356952385</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.415253858634582</v>
+        <v>-0.00345404672004935</v>
       </c>
       <c r="AO2" t="n">
-        <v>-1.48452514472983</v>
+        <v>0.45295013380239</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.477428555462552</v>
+        <v>0.322288887234157</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-1.43387534482926</v>
+        <v>-2.2596688355615</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.381903551070899</v>
+        <v>0.675379365036181</v>
       </c>
       <c r="AS2" t="n">
-        <v>-1.1201776730103</v>
+        <v>-1.50500262013229</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.0217127179924806</v>
+        <v>1.37000503420281</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.442177019545199</v>
+        <v>-0.134359027883528</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.743425334920596</v>
+        <v>0.793301001510557</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.680148463658124</v>
+        <v>-0.460976967634299</v>
       </c>
       <c r="AX2" t="n">
-        <v>-1.30988034632203</v>
+        <v>0.93069497822267</v>
       </c>
       <c r="AY2" t="n">
-        <v>2.98322566023115</v>
+        <v>-1.99475096311816</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.00565139100087201</v>
+        <v>-0.587026856540789</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.364208928261129</v>
+        <v>-1.50379232816764</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0.153560639958513</v>
+        <v>-0.547884163223021</v>
       </c>
       <c r="BC2" t="n">
-        <v>-1.2665043536635</v>
+        <v>-0.169901285027842</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.81758923401729</v>
+        <v>0.572420681195121</v>
       </c>
       <c r="BE2" t="n">
-        <v>-1.23808658662315</v>
+        <v>-0.309475026829093</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.794331331100737</v>
+        <v>-1.11032057322015</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.608858356969174</v>
+        <v>-1.74012421327929</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.0644796729757121</v>
+        <v>2.90176310592967</v>
       </c>
       <c r="BI2" t="n">
-        <v>1.65893165617454</v>
+        <v>-2.37973454535584</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-1.43981879892035</v>
+        <v>0.92349539473584</v>
       </c>
       <c r="BK2" t="n">
-        <v>-1.28845434443345</v>
+        <v>0.372657371073051</v>
       </c>
       <c r="BL2" t="n">
-        <v>1.47366900820101</v>
+        <v>0.141233513734113</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0.221971916402473</v>
+        <v>0.90687493461001</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.383376798009055</v>
+        <v>-0.589397883671253</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0.782327742990926</v>
+        <v>-1.19910158925085</v>
       </c>
       <c r="BP2" t="n">
-        <v>-2.16840671405316</v>
+        <v>1.37046801974746</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.5071158611853</v>
+        <v>0.39017375314848</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.727676556591068</v>
+        <v>-0.439124688149545</v>
       </c>
       <c r="BS2" t="n">
-        <v>-1.23189502006137</v>
+        <v>-0.955116589566737</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.832646806361097</v>
+        <v>0.336059103337495</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.888655563401677</v>
+        <v>-0.205616075578604</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.438208827759539</v>
+        <v>2.1105357556212</v>
       </c>
       <c r="BW2" t="n">
-        <v>-1.09168022635069</v>
+        <v>0.0849968183257464</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.0286155794769085</v>
+        <v>-1.85996212239209</v>
       </c>
       <c r="BY2" t="n">
-        <v>1.44238804260274</v>
+        <v>0.987363885080024</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0.515923593434971</v>
+        <v>0.648769242338826</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.515595620962954</v>
+        <v>-1.54903797781779</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.872405612322727</v>
+        <v>1.14485441272814</v>
       </c>
       <c r="CC2" t="n">
-        <v>1.38405974859076</v>
+        <v>-0.639632944462017</v>
       </c>
       <c r="CD2" t="n">
-        <v>-2.17946479897011</v>
+        <v>1.26623747327997</v>
       </c>
       <c r="CE2" t="n">
-        <v>1.04863567014285</v>
+        <v>-0.488400643870242</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.0758229317472134</v>
+        <v>-0.597868084046075</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.706625088041923</v>
+        <v>-0.853838377726912</v>
       </c>
       <c r="CH2" t="n">
-        <v>1.5628339863228</v>
+        <v>0.349611468956861</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.559623361734474</v>
+        <v>-0.100776867325174</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-1.853662536455</v>
+        <v>-0.0358946973544518</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.97427964087054</v>
+        <v>2.00474984556973</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.832244329034584</v>
+        <v>1.94849279476097</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.713232540089677</v>
+        <v>-0.446302756712845</v>
       </c>
       <c r="CN2" t="n">
-        <v>-1.8240627343378</v>
+        <v>0.856176076817963</v>
       </c>
       <c r="CO2" t="n">
-        <v>-1.99973884803438</v>
+        <v>-0.53427326913398</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.45716966000481</v>
+        <v>0.458321625905787</v>
       </c>
       <c r="CQ2" t="n">
-        <v>2.27144545414249</v>
+        <v>-1.98770309244186</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.527643479778094</v>
+        <v>0.532854693676598</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.315890663503578</v>
+        <v>0.369785450465404</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.570097013159887</v>
+        <v>0.0181191853862564</v>
       </c>
       <c r="CU2" t="n">
-        <v>2.33977684199421</v>
+        <v>0.913550992871369</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.235932027316636</v>
+        <v>-0.440265197644491</v>
       </c>
       <c r="CW2" t="n">
-        <v>-1.82849081454717</v>
+        <v>-0.383510945046394</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0.317892015699524</v>
+        <v>-1.01986956445071</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0.214156477891187</v>
+        <v>-0.365244952445265</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.935168053548583</v>
+        <v>-1.3464896835917</v>
       </c>
       <c r="DA2" t="n">
-        <v>-0.958592214445927</v>
+        <v>1.68742527528225</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.409817191584554</v>
+        <v>1.04153580570463</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.0585812869095304</v>
+        <v>-0.806115984642519</v>
       </c>
       <c r="DD2" t="n">
-        <v>1.01161827302638</v>
+        <v>1.15396740829215</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0.826733026080616</v>
+        <v>-1.10373281216034</v>
       </c>
       <c r="DF2" t="n">
-        <v>1.48308017096107</v>
+        <v>1.39400431760887</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0.30213730739612</v>
+        <v>0.0802223899400547</v>
       </c>
       <c r="DH2" t="n">
-        <v>-1.00217318235314</v>
+        <v>0.628423520329313</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.98946245358614</v>
+        <v>-0.151063075808155</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0.571647628018622</v>
+        <v>-0.966247703694622</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.361553897998451</v>
+        <v>0.400235811739099</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.0700235023031033</v>
+        <v>-0.37741949420951</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.949308222050361</v>
+        <v>0.946936140303195</v>
       </c>
       <c r="DN2" t="n">
-        <v>1.34976276622755</v>
+        <v>1.21923748121744</v>
       </c>
       <c r="DO2" t="n">
-        <v>-1.14892965174093</v>
+        <v>0.146450555265702</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.471706648081348</v>
+        <v>0.703366897829317</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.810573910160838</v>
+        <v>-1.21523302739972</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.485112336049789</v>
+        <v>-0.956421063006796</v>
       </c>
       <c r="DS2" t="n">
-        <v>-1.03441869696622</v>
+        <v>-0.00774601356888989</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.0929724931038659</v>
+        <v>-1.54419357878238</v>
       </c>
       <c r="DU2" t="n">
-        <v>-1.4305932331778</v>
+        <v>0.867456347279338</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.495854720316221</v>
+        <v>-0.334345676769315</v>
       </c>
       <c r="DW2" t="n">
-        <v>-1.95257195302926</v>
+        <v>0.315557083568005</v>
       </c>
       <c r="DX2" t="n">
-        <v>1.165803578308</v>
+        <v>0.0320016419527699</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.465469168901742</v>
+        <v>-1.15180140028727</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.395114618874739</v>
+        <v>0.910437333406913</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.477568732817744</v>
+        <v>0.289657988714185</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.85191047076142</v>
+        <v>0.395316900218277</v>
       </c>
       <c r="EC2" t="n">
-        <v>-1.13434306770382</v>
+        <v>1.31753600150545</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.33286443352395</v>
+        <v>-1.68929002706404</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.099789883787253</v>
+        <v>-1.77861130308845</v>
       </c>
       <c r="EF2" t="n">
-        <v>2.72155033539693</v>
+        <v>0.132314159974859</v>
       </c>
       <c r="EG2" t="n">
-        <v>-2.03409448363187</v>
+        <v>-1.08159509446474</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.0282961547060361</v>
+        <v>0.206232056095678</v>
       </c>
       <c r="EI2" t="n">
-        <v>-1.19419885972308</v>
+        <v>-0.775396148593899</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-1.09939803743498</v>
+        <v>0.166764149728478</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.500622949501892</v>
+        <v>-0.415709417340441</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.36863975433199</v>
+        <v>-0.680781987534779</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.101518030094876</v>
+        <v>-2.53095765626956</v>
       </c>
       <c r="EN2" t="n">
-        <v>0.565122199700102</v>
+        <v>1.30491636276343</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.316131366525928</v>
+        <v>0.00273234834591967</v>
       </c>
       <c r="EP2" t="n">
-        <v>-0.190541351312411</v>
+        <v>-0.444525407233729</v>
       </c>
       <c r="EQ2" t="n">
-        <v>1.70710636765719</v>
+        <v>0.0589867397154284</v>
       </c>
       <c r="ER2" t="n">
-        <v>-1.20387142540893</v>
+        <v>-0.726797003874672</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.12273093908941</v>
+        <v>-0.313827601115452</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.987081079048425</v>
+        <v>0.535081791606803</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.706705153203791</v>
+        <v>0.872883319454011</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.0803022575419226</v>
+        <v>0.010061419927421</v>
       </c>
       <c r="EW2" t="n">
-        <v>-0.507889551846721</v>
+        <v>1.24212646438312</v>
       </c>
       <c r="EX2" t="n">
-        <v>-1.18152141827263</v>
+        <v>-0.436169571310217</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.457095020011873</v>
+        <v>-0.321430985789825</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.548137006954622</v>
+        <v>-0.357388283972155</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.359038571608761</v>
+        <v>-1.67512838814755</v>
       </c>
       <c r="FB2" t="n">
-        <v>1.12435431819418</v>
+        <v>0.123372519946947</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0.0638456060967835</v>
+        <v>0.0361003230085788</v>
       </c>
       <c r="FD2" t="n">
-        <v>1.7125095848517</v>
+        <v>2.93996282980885</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.672073927305259</v>
+        <v>0.845241421301632</v>
       </c>
       <c r="FF2" t="n">
-        <v>-0.407049229428154</v>
+        <v>-2.44825586582911</v>
       </c>
       <c r="FG2" t="n">
-        <v>1.05918232852159</v>
+        <v>-2.36369080138402</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.169058580211995</v>
+        <v>-0.52708389631933</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.0809808951747849</v>
+        <v>-0.00979749599027266</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0.372718750357086</v>
+        <v>-0.116617249782694</v>
       </c>
       <c r="FK2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FL2" t="n">
         <v>1</v>
@@ -1961,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="FO2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP2" t="n">
         <v>0</v>
@@ -1973,10 +1991,10 @@
         <v>0</v>
       </c>
       <c r="FS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT2" t="n">
         <v>0</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>1</v>
       </c>
       <c r="FU2" t="n">
         <v>0</v>
@@ -1994,12 +2012,21 @@
         <v>0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GA2" t="n">
         <v>1</v>
       </c>
       <c r="GB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE2" t="n">
         <v>1</v>
       </c>
     </row>

--- a/file_checks/X_correct_sample.xlsx
+++ b/file_checks/X_correct_sample.xlsx
@@ -1469,508 +1469,508 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.841412404463373</v>
+        <v>-0.111683240964896</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.64341947870535</v>
+        <v>0.807018461046038</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.480244627344693</v>
+        <v>0.781544841663637</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.740416982478479</v>
+        <v>0.15934656906512</v>
       </c>
       <c r="E2" t="n">
-        <v>0.228950159061004</v>
+        <v>0.320041139627404</v>
       </c>
       <c r="F2" t="n">
-        <v>0.696317413256603</v>
+        <v>0.679890309623229</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0131394887126592</v>
+        <v>-1.55123595447044</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0776594621774037</v>
+        <v>1.53861849829454</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.85593618811653</v>
+        <v>-0.136618474556153</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.687228353602373</v>
+        <v>0.0166099400292526</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.202373398342916</v>
+        <v>0.387636224330973</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.632048139352103</v>
+        <v>1.09413695253762</v>
       </c>
       <c r="M2" t="n">
-        <v>0.455582564808087</v>
+        <v>1.67683233148617</v>
       </c>
       <c r="N2" t="n">
-        <v>1.69730957166241</v>
+        <v>0.568862202058426</v>
       </c>
       <c r="O2" t="n">
-        <v>1.52480677540082</v>
+        <v>-1.97786849033352</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.96019872575631</v>
+        <v>-0.446849704408603</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.06522739384967</v>
+        <v>-2.07582071716925</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.0451823810094551</v>
+        <v>1.95609799933896</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.563245628731607</v>
+        <v>1.32635444976249</v>
       </c>
       <c r="T2" t="n">
-        <v>1.89783363983428</v>
+        <v>-1.54471391617576</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.430576928038395</v>
+        <v>-0.353223847366978</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.702878361195178</v>
+        <v>1.79497355090084</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.848088351389472</v>
+        <v>0.67506097553228</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.0656699842104342</v>
+        <v>-1.32450758267666</v>
       </c>
       <c r="Y2" t="n">
-        <v>-2.02324459959604</v>
+        <v>-0.407598257855276</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.175172571401999</v>
+        <v>0.0519910104066108</v>
       </c>
       <c r="AA2" t="n">
-        <v>-3.26864315409301</v>
+        <v>0.304773479589492</v>
       </c>
       <c r="AB2" t="n">
-        <v>-1.06968251008069</v>
+        <v>0.212456705962811</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.542624463017559</v>
+        <v>0.954972340018474</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.418240250362507</v>
+        <v>-0.121367301507946</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.134041902501137</v>
+        <v>-0.474430531281811</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.480308635907728</v>
+        <v>-1.46113011801065</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.827856627243898</v>
+        <v>0.589191912729807</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.645992851170982</v>
+        <v>-2.55232799909546</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.104177661928466</v>
+        <v>0.749699884863925</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.13449615123768</v>
+        <v>0.899394517617744</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.343895934279011</v>
+        <v>1.07092014460633</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.708258323998476</v>
+        <v>-1.9157994446109</v>
       </c>
       <c r="AM2" t="n">
-        <v>-1.02655356952385</v>
+        <v>-0.80808487336715</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.00345404672004935</v>
+        <v>0.658224931205459</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.45295013380239</v>
+        <v>0.624233877317649</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.322288887234157</v>
+        <v>0.837185378767618</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-2.2596688355615</v>
+        <v>0.77389532624689</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.675379365036181</v>
+        <v>0.40055071751014</v>
       </c>
       <c r="AS2" t="n">
-        <v>-1.50500262013229</v>
+        <v>-0.0116891417219883</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.37000503420281</v>
+        <v>-0.857361500394836</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.134359027883528</v>
+        <v>0.581311692955255</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.793301001510557</v>
+        <v>-0.210116032393151</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.460976967634299</v>
+        <v>-1.95311864229071</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.93069497822267</v>
+        <v>-0.0497323391399499</v>
       </c>
       <c r="AY2" t="n">
-        <v>-1.99475096311816</v>
+        <v>-0.638966019811019</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.587026856540789</v>
+        <v>0.251802790128198</v>
       </c>
       <c r="BA2" t="n">
-        <v>-1.50379232816764</v>
+        <v>-0.387268886269571</v>
       </c>
       <c r="BB2" t="n">
-        <v>-0.547884163223021</v>
+        <v>-0.885031270631329</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.169901285027842</v>
+        <v>0.771066969815342</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.572420681195121</v>
+        <v>0.489840476321626</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.309475026829093</v>
+        <v>0.868235110159023</v>
       </c>
       <c r="BF2" t="n">
-        <v>-1.11032057322015</v>
+        <v>0.0558256755139932</v>
       </c>
       <c r="BG2" t="n">
-        <v>-1.74012421327929</v>
+        <v>-0.00579396618401425</v>
       </c>
       <c r="BH2" t="n">
-        <v>2.90176310592967</v>
+        <v>0.867914321944711</v>
       </c>
       <c r="BI2" t="n">
-        <v>-2.37973454535584</v>
+        <v>0.337167488209528</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.92349539473584</v>
+        <v>0.619695807504105</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.372657371073051</v>
+        <v>0.0218190710195324</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.141233513734113</v>
+        <v>0.823005966115904</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.90687493461001</v>
+        <v>1.37606984222447</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.589397883671253</v>
+        <v>-2.78940978285101</v>
       </c>
       <c r="BO2" t="n">
-        <v>-1.19910158925085</v>
+        <v>0.946449992382142</v>
       </c>
       <c r="BP2" t="n">
-        <v>1.37046801974746</v>
+        <v>-0.607699274696957</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.39017375314848</v>
+        <v>0.946517654361316</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.439124688149545</v>
+        <v>-0.136823387365763</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0.955116589566737</v>
+        <v>0.493893558671956</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.336059103337495</v>
+        <v>-1.02081438163811</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.205616075578604</v>
+        <v>-0.494802556003534</v>
       </c>
       <c r="BV2" t="n">
-        <v>2.1105357556212</v>
+        <v>-1.13087254341071</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.0849968183257464</v>
+        <v>1.51538391638299</v>
       </c>
       <c r="BX2" t="n">
-        <v>-1.85996212239209</v>
+        <v>-0.199135229730228</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.987363885080024</v>
+        <v>1.00674372112107</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.648769242338826</v>
+        <v>0.745039702019707</v>
       </c>
       <c r="CA2" t="n">
-        <v>-1.54903797781779</v>
+        <v>-0.553915192822748</v>
       </c>
       <c r="CB2" t="n">
-        <v>1.14485441272814</v>
+        <v>0.918856503627342</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.639632944462017</v>
+        <v>-0.51289584333094</v>
       </c>
       <c r="CD2" t="n">
-        <v>1.26623747327997</v>
+        <v>-0.553957642640934</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.488400643870242</v>
+        <v>-0.293360564832849</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.597868084046075</v>
+        <v>-0.0108462772597635</v>
       </c>
       <c r="CG2" t="n">
-        <v>-0.853838377726912</v>
+        <v>-1.95072400504167</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.349611468956861</v>
+        <v>-1.0366692614715</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0.100776867325174</v>
+        <v>-0.570857501340518</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0.0358946973544518</v>
+        <v>-0.531470045208134</v>
       </c>
       <c r="CK2" t="n">
-        <v>2.00474984556973</v>
+        <v>-0.0854922460854022</v>
       </c>
       <c r="CL2" t="n">
-        <v>1.94849279476097</v>
+        <v>1.53195387791012</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0.446302756712845</v>
+        <v>-0.892245119248939</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.856176076817963</v>
+        <v>0.235280734026551</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0.53427326913398</v>
+        <v>-0.934090527814195</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.458321625905787</v>
+        <v>0.636278976851624</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-1.98770309244186</v>
+        <v>0.334848913718808</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.532854693676598</v>
+        <v>-1.61325360005743</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.369785450465404</v>
+        <v>1.43107142695715</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.0181191853862564</v>
+        <v>0.0354197304241349</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.913550992871369</v>
+        <v>-0.0491766105186092</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.440265197644491</v>
+        <v>-0.393898425381649</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.383510945046394</v>
+        <v>0.667897475562333</v>
       </c>
       <c r="CX2" t="n">
-        <v>-1.01986956445071</v>
+        <v>2.03393855330762</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0.365244952445265</v>
+        <v>-1.01007554384335</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-1.3464896835917</v>
+        <v>0.0129682751243138</v>
       </c>
       <c r="DA2" t="n">
-        <v>1.68742527528225</v>
+        <v>-0.207064714469314</v>
       </c>
       <c r="DB2" t="n">
-        <v>1.04153580570463</v>
+        <v>-0.225124958351966</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.806115984642519</v>
+        <v>-0.0316882412470792</v>
       </c>
       <c r="DD2" t="n">
-        <v>1.15396740829215</v>
+        <v>1.36946978228677</v>
       </c>
       <c r="DE2" t="n">
-        <v>-1.10373281216034</v>
+        <v>1.64651398904448</v>
       </c>
       <c r="DF2" t="n">
-        <v>1.39400431760887</v>
+        <v>-1.4345681754747</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.0802223899400547</v>
+        <v>-1.53896644035032</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.628423520329313</v>
+        <v>0.142646699605652</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.151063075808155</v>
+        <v>-0.334324056755091</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0.966247703694622</v>
+        <v>-0.603624822582715</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.400235811739099</v>
+        <v>-1.0516338104262</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.37741949420951</v>
+        <v>-1.48044982374179</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.946936140303195</v>
+        <v>0.747523215780078</v>
       </c>
       <c r="DN2" t="n">
-        <v>1.21923748121744</v>
+        <v>0.996145040964336</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.146450555265702</v>
+        <v>0.901375546947062</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.703366897829317</v>
+        <v>0.00625139394961755</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-1.21523302739972</v>
+        <v>0.224514990346219</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.956421063006796</v>
+        <v>-0.130008755062771</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.00774601356888989</v>
+        <v>-0.625982379918397</v>
       </c>
       <c r="DT2" t="n">
-        <v>-1.54419357878238</v>
+        <v>0.975598331974878</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.867456347279338</v>
+        <v>1.69003117796375</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.334345676769315</v>
+        <v>-0.209846710097757</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.315557083568005</v>
+        <v>-0.0356356886150761</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.0320016419527699</v>
+        <v>-1.95118602191357</v>
       </c>
       <c r="DY2" t="n">
-        <v>-1.15180140028727</v>
+        <v>0.285815670400354</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.910437333406913</v>
+        <v>-1.15631392746732</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.289657988714185</v>
+        <v>-0.734255808342985</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.395316900218277</v>
+        <v>-0.483903280134986</v>
       </c>
       <c r="EC2" t="n">
-        <v>1.31753600150545</v>
+        <v>0.351496025191184</v>
       </c>
       <c r="ED2" t="n">
-        <v>-1.68929002706404</v>
+        <v>-0.0447456894974422</v>
       </c>
       <c r="EE2" t="n">
-        <v>-1.77861130308845</v>
+        <v>1.17202716836651</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.132314159974859</v>
+        <v>0.689815413271346</v>
       </c>
       <c r="EG2" t="n">
-        <v>-1.08159509446474</v>
+        <v>0.0447529351088454</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.206232056095678</v>
+        <v>0.517507612622667</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0.775396148593899</v>
+        <v>-0.0484182605111827</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.166764149728478</v>
+        <v>1.23944179973973</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.415709417340441</v>
+        <v>-0.00866564864268461</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.680781987534779</v>
+        <v>0.511630872522454</v>
       </c>
       <c r="EM2" t="n">
-        <v>-2.53095765626956</v>
+        <v>0.215477431905847</v>
       </c>
       <c r="EN2" t="n">
-        <v>1.30491636276343</v>
+        <v>0.609601097112833</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.00273234834591967</v>
+        <v>-1.23892280400748</v>
       </c>
       <c r="EP2" t="n">
-        <v>-0.444525407233729</v>
+        <v>0.436537956297728</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.0589867397154284</v>
+        <v>0.246206020873962</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.726797003874672</v>
+        <v>1.42412004970835</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.313827601115452</v>
+        <v>1.24247525097182</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.535081791606803</v>
+        <v>0.610312450469161</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.872883319454011</v>
+        <v>0.0945800900506218</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.010061419927421</v>
+        <v>-0.782865918624511</v>
       </c>
       <c r="EW2" t="n">
-        <v>1.24212646438312</v>
+        <v>-1.14399530659596</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.436169571310217</v>
+        <v>0.268551160062193</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.321430985789825</v>
+        <v>-0.192117426608831</v>
       </c>
       <c r="EZ2" t="n">
-        <v>-0.357388283972155</v>
+        <v>0.737978295244876</v>
       </c>
       <c r="FA2" t="n">
-        <v>-1.67512838814755</v>
+        <v>-0.817157245864797</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.123372519946947</v>
+        <v>-0.797841751327965</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.0361003230085788</v>
+        <v>-0.166479568899354</v>
       </c>
       <c r="FD2" t="n">
-        <v>2.93996282980885</v>
+        <v>-0.695327814911132</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.845241421301632</v>
+        <v>-1.18020916810129</v>
       </c>
       <c r="FF2" t="n">
-        <v>-2.44825586582911</v>
+        <v>-0.821997880200546</v>
       </c>
       <c r="FG2" t="n">
-        <v>-2.36369080138402</v>
+        <v>0.581308983309993</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.52708389631933</v>
+        <v>-1.07245214362029</v>
       </c>
       <c r="FI2" t="n">
-        <v>-0.00979749599027266</v>
+        <v>1.10940621128589</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0.116617249782694</v>
+        <v>-0.582221660669804</v>
       </c>
       <c r="FK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL2" t="n">
         <v>0</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>1</v>
       </c>
       <c r="FM2" t="n">
         <v>0</v>
@@ -1979,19 +1979,19 @@
         <v>0</v>
       </c>
       <c r="FO2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FP2" t="n">
         <v>0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FR2" t="n">
         <v>0</v>
       </c>
       <c r="FS2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FT2" t="n">
         <v>0</v>
@@ -2003,28 +2003,28 @@
         <v>1</v>
       </c>
       <c r="FW2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FX2" t="n">
         <v>0</v>
       </c>
       <c r="FY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FZ2" t="n">
         <v>0</v>
       </c>
-      <c r="FZ2" t="n">
+      <c r="GA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="GC2" t="n">
         <v>1</v>
       </c>
-      <c r="GA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC2" t="n">
+      <c r="GD2" t="n">
         <v>0</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>1</v>
       </c>
       <c r="GE2" t="n">
         <v>1</v>
